--- a/Flight Payload/Perovskite Performance/P2_Assembled/X016_PreSatellite/curve_0.0_3_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P2_Assembled/X016_PreSatellite/curve_0.0_3_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P2_Assembled\X016_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2365E7BD-81F9-4B1B-9B64-BD481EE88E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,27 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45220.63117782935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>45220.631177829353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +512,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +536,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001606837606837607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>4.8205128205128208E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.001606837606837607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f>MAX(Data!$E$2:$E$257)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3" t="e">
+        <f>(B12/((B8)*B9))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,12 +626,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -603,12 +643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -620,12 +660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -637,12 +677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -654,12 +694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -671,12 +711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -688,12 +728,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -705,12 +745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -722,12 +762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -739,12 +779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -756,12 +796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -773,12 +813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -790,12 +830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -807,12 +847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -824,12 +864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -841,12 +881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -858,12 +898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -875,12 +915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -892,12 +932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -909,12 +949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -926,12 +966,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -943,12 +983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -960,12 +1000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -977,12 +1017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -994,12 +1034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1011,12 +1051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1028,12 +1068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1045,12 +1085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1062,12 +1102,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1079,12 +1119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1096,12 +1136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1113,12 +1153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1130,12 +1170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1147,12 +1187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1164,12 +1204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1181,12 +1221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1198,12 +1238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1215,12 +1255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1232,12 +1272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1249,12 +1289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1266,12 +1306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1283,12 +1323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1300,12 +1340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1317,12 +1357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1334,12 +1374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1351,12 +1391,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1368,12 +1408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1385,12 +1425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1402,12 +1442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1419,12 +1459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1436,12 +1476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1453,12 +1493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1470,12 +1510,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1487,12 +1527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1504,12 +1544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1521,12 +1561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1538,12 +1578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1555,12 +1595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1572,12 +1612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1589,12 +1629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1606,12 +1646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1623,12 +1663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1640,12 +1680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1657,12 +1697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1674,12 +1714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1691,12 +1731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1708,12 +1748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1725,12 +1765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1742,12 +1782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1759,12 +1799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1776,12 +1816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1793,12 +1833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1810,12 +1850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1827,12 +1867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1844,12 +1884,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1861,12 +1901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1878,12 +1918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1895,12 +1935,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1912,12 +1952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1929,12 +1969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1946,12 +1986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1963,12 +2003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1980,12 +2020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1997,12 +2037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2014,12 +2054,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2031,12 +2071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2048,12 +2088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2065,12 +2105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2082,12 +2122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2099,12 +2139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2116,12 +2156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2133,12 +2173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2150,12 +2190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2167,12 +2207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2184,12 +2224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2201,12 +2241,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2218,12 +2258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2235,12 +2275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2252,12 +2292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2269,12 +2309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2286,12 +2326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2303,12 +2343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2320,12 +2360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2337,12 +2377,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2354,12 +2394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2371,12 +2411,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2388,12 +2428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2405,12 +2445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2422,12 +2462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2439,12 +2479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2456,12 +2496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2473,12 +2513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2490,12 +2530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2507,12 +2547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2524,12 +2564,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2541,12 +2581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2558,12 +2598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2575,12 +2615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2592,12 +2632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2609,12 +2649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2626,12 +2666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2643,12 +2683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2660,12 +2700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2677,12 +2717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2694,12 +2734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2711,12 +2751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2728,12 +2768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2745,12 +2785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2762,12 +2802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2779,12 +2819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2796,12 +2836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2813,12 +2853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2830,12 +2870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2847,12 +2887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2864,12 +2904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2881,12 +2921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2898,12 +2938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2915,12 +2955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2932,12 +2972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2949,12 +2989,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2966,12 +3006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2983,12 +3023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3000,12 +3040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3017,12 +3057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3034,12 +3074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3051,12 +3091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3068,12 +3108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3085,12 +3125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3102,12 +3142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3119,12 +3159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3136,12 +3176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3153,12 +3193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3170,12 +3210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3187,12 +3227,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3204,12 +3244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3221,12 +3261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3238,12 +3278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3255,12 +3295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3272,12 +3312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3289,12 +3329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3306,12 +3346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3323,12 +3363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3340,12 +3380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3357,12 +3397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3374,12 +3414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3391,12 +3431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3408,12 +3448,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3425,12 +3465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3442,12 +3482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3459,12 +3499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3476,12 +3516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3493,12 +3533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3510,12 +3550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3527,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3544,12 +3584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3561,12 +3601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3578,12 +3618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3595,12 +3635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3612,12 +3652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3629,12 +3669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3646,12 +3686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3663,12 +3703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3680,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3697,12 +3737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3714,12 +3754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3731,12 +3771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3748,12 +3788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3765,12 +3805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3782,12 +3822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3799,12 +3839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3816,12 +3856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3833,12 +3873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3850,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3867,12 +3907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3884,12 +3924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3901,12 +3941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3918,12 +3958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3935,12 +3975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3952,12 +3992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3969,12 +4009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3986,12 +4026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4003,12 +4043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4020,12 +4060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4037,12 +4077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4054,12 +4094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4071,12 +4111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4088,12 +4128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4105,12 +4145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4122,12 +4162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4139,12 +4179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4156,12 +4196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4173,12 +4213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4190,12 +4230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4207,12 +4247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4224,12 +4264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4241,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4258,12 +4298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4275,12 +4315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4292,12 +4332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4309,12 +4349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4326,12 +4366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4343,12 +4383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4360,12 +4400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4377,12 +4417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4394,12 +4434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4411,12 +4451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4428,12 +4468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4445,12 +4485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4462,12 +4502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4479,12 +4519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4496,12 +4536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4513,12 +4553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4530,12 +4570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4547,12 +4587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4564,12 +4604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4581,12 +4621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4598,12 +4638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4615,12 +4655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4632,12 +4672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4649,12 +4689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4666,12 +4706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4683,12 +4723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4700,12 +4740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4717,12 +4757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4734,12 +4774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4751,12 +4791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4768,12 +4808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4785,12 +4825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4802,12 +4842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4819,12 +4859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4836,12 +4876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4853,12 +4893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4870,12 +4910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4887,12 +4927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4904,12 +4944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4921,12 +4961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C257">
         <v>0</v>
